--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E04F411-D41A-4B69-B0E5-9121BE72B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D674E493-B333-4197-B9E7-8380C7ECDFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,6 +588,12 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="43.5">
       <c r="A3" t="s">
@@ -608,6 +614,12 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="J3">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" t="s">
@@ -627,6 +639,12 @@
       </c>
       <c r="H4" t="s">
         <v>27</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -646,6 +664,12 @@
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="J5">
+        <v>123</v>
+      </c>
+      <c r="K5">
+        <v>123</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="46.5">
@@ -664,6 +688,12 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
+      <c r="J6">
+        <v>324</v>
+      </c>
+      <c r="K6">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D674E493-B333-4197-B9E7-8380C7ECDFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7402FEE-E3E9-4F64-9979-9157D13D70F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>📖 Help;🔑 Log in;💬 Contact support;</t>
   </si>
   <si>
-    <t>/dialog{"dialog_id":"help"};/dialog{"dialog_id":"login"};/dialog{"dialog_id":"contact"};</t>
+    <t>/dialog{"dialog_id":"Help"};/dialog{"dialog_id":"Login"};/dialog{"dialog_id":"Contact"};</t>
   </si>
   <si>
     <t>Help</t>
@@ -96,7 +96,7 @@
     <t>🔑 Account issues;💰 Check balance;📞 Contact support;</t>
   </si>
   <si>
-    <t>/dialog{"dialog_id":"login"};/dialog{"dialog_id":"balance"};/dialog{"dialog_id":"contact"};</t>
+    <t>/dialog{"dialog_id":"Login"};/dialog{"dialog_id":"Balance"};/dialog{"dialog_id":"Contact"};</t>
   </si>
   <si>
     <t>Account</t>
@@ -111,7 +111,7 @@
     <t>🔙 Back</t>
   </si>
   <si>
-    <t>/dialog{"dialog_id":"start"};</t>
+    <t>/dialog{"dialog_id":"Start"};</t>
   </si>
   <si>
     <t>user_is_logged_in</t>
@@ -126,7 +126,7 @@
     <t>🔄 Refresh;🔙 Back;</t>
   </si>
   <si>
-    <t>/dialog{"dialog_id":"balance"};/dialog{"dialog_id":"start"};</t>
+    <t>/dialog{"dialog_id":"Balance"};/dialog{"dialog_id":"Start"};</t>
   </si>
   <si>
     <t>Support</t>
@@ -135,7 +135,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>📞 You can contact our support team via:\n 📧 Email: support@example.com\n📱 Phone: +1 234 567 890</t>
+    <t>📞 You can contact my owner: t.me/Uamgl</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="46.5">
+    <row r="6" spans="1:13" ht="30.75">
       <c r="A6" t="s">
         <v>32</v>
       </c>

--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7402FEE-E3E9-4F64-9979-9157D13D70F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{039E81F4-F246-47CB-9A30-9742104A841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Topic</t>
   </si>
@@ -78,64 +78,104 @@
     <t>Start</t>
   </si>
   <si>
-    <t>👋 Hello! Welcome to our bot. How can I help you today?</t>
-  </si>
-  <si>
-    <t>📖 Help;🔑 Log in;💬 Contact support;</t>
-  </si>
-  <si>
-    <t>/dialog{"dialog_id":"Help"};/dialog{"dialog_id":"Login"};/dialog{"dialog_id":"Contact"};</t>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>ℹ️ Here’s what I can do for you:</t>
-  </si>
-  <si>
-    <t>🔑 Account issues;💰 Check balance;📞 Contact support;</t>
-  </si>
-  <si>
-    <t>/dialog{"dialog_id":"Login"};/dialog{"dialog_id":"Balance"};/dialog{"dialog_id":"Contact"};</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>🔑 Please enter your login details.</t>
-  </si>
-  <si>
-    <t>🔙 Back</t>
-  </si>
-  <si>
-    <t>/dialog{"dialog_id":"Start"};</t>
-  </si>
-  <si>
-    <t>user_is_logged_in</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>💰 Your current balance is: 0 USD.</t>
-  </si>
-  <si>
-    <t>🔄 Refresh;🔙 Back;</t>
-  </si>
-  <si>
-    <t>/dialog{"dialog_id":"Balance"};/dialog{"dialog_id":"Start"};</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>📞 You can contact my owner: t.me/Uamgl</t>
+    <t>Привіт! Я демонстраційний Telegram-бот, створений для того, щоб показати свої можливості. Я можу обробляти команди, кнопки, оновлювати кеш діалогів і навіть редагувати повідомлення.
+Мій творець розробив мене для автоматизації, оптимізації бізнес-процесів та швидкої інтеграції у ваші проєкти.
+Обери, що тебе цікавить:</t>
+  </si>
+  <si>
+    <t>Що я вмію?; Хто мій творець?; Документація; Бот для рекрутерів</t>
+  </si>
+  <si>
+    <t>/dialog{"dialog_id":"Features"}; /dialog{"dialog_id":"Creator"}; /dialog{"dialog_id":"Docs"}; /dialog{"dialog_id":"RecruiterFeatures"}</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Я маю широкий функціонал, який можна легко адаптувати під різні задачі. Ось, що я вмію:
+✅ Обробка команд (/start, /reload_cache, /dialog{"dialog_id":"X"})
+✅ Обробка Callback-кнопок (callback:payload)
+✅ Підтримка Inline-кнопок (кнопки в повідомленнях)
+✅ Редагування повідомлень (старе замінюється новим)
+✅ Перезавантаження кешу без перезапуску
+✅ Логування всіх дій для зручного аналізу
+Якщо тобі цікаво дізнатися більше, заглянь у документацію!</t>
+  </si>
+  <si>
+    <t>Документація; Повернутися</t>
+  </si>
+  <si>
+    <t>/dialog{"dialog_id":"Docs"}; /dialog{"dialog_id":"Start"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project </t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Мій творець – розробник та девопс, який займається автоматизацією та створенням розумних ботів. Його мета – спростити взаємодію користувачів із системами, допомагаючи бізнесу та ентузіастам у створенні гнучких та ефективних рішень.
+Якщо ти хочеш дізнатися більше або навіть створити власного бота, подивися документацію!</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документація містить усю необхідну інформацію для створення власного бота. Тут ти знайдеш:
+📌 Як працює бот та які можливості він має
+📌 Як налаштувати власний Telegram-бот
+📌 Як інтегрувати його у свій проєкт
+Детальніше можна дізнатися за посиланням: </t>
+  </si>
+  <si>
+    <t>Повернутися</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /dialog{"dialog_id":"Start"}</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>RecruiterFeatures</t>
+  </si>
+  <si>
+    <t>Я можу значно спростити роботу рекрутерів, допомагаючи керувати великим потоком кандидатів. Моє завдання – автоматизувати процеси, щоб рекрутер міг зосередитися на виборі найкращих фахівців.
+🔹 Автоматична реєстрація кандидатів – рекрутер направляє кандидатів у бота, де вони заповнюють форму та реєструються.
+🔹 Публікація вакансій – рекрутер створює вакансію, яка автоматично розсилається всім відповідним кандидатам.
+🔹 Подача в один клік – кандидат може відгукнутися на вакансію натисканням однієї кнопки.
+🔹 Динамічне оновлення кількості місць – бот автоматично оновлює статус вакансії, поки не буде досягнуто потрібної кількості кандидатів.
+🔹 Автоматичне надсилання резюме рекрутеру – всі дані кандидата разом із його контактами надсилаються рекрутеру.
+🔹 Можливість прийняти або відхилити кандидата – рекрутер може підтвердити чи відхилити заявку, що оновлює статус вакансії.
+🔹 Блокування небажаних кандидатів – якщо кандидат порушує правила або не відповідає вимогам, його можна заблокувати.
+🔹 Етапи співбесід – рекрутер може самостійно створити етапи співбесід, а кандидат отримає повідомлення про кожен новий етап.
+🔹 Офер та завершення пошуку – у разі успішного працевлаштування кандидат отримує офер та може завершити пошук роботи або продовжити пошук нових пропозицій.
+Мої можливості допоможуть зекономити час і зробити процес найму швидшим та зручнішим.</t>
+  </si>
+  <si>
+    <t>Як це працює?; Повернутися</t>
+  </si>
+  <si>
+    <t>/dialog{"dialog_id":"HowItWorks"}; /dialog{"dialog_id":"Start"}</t>
+  </si>
+  <si>
+    <t>HowItWorks</t>
+  </si>
+  <si>
+    <t>Ось як виглядає процес роботи рекрутера з ботом:
+1️⃣ Рекрутер реєструється в боті та створює вакансію
+2️⃣ Кандидати отримують вакансію та можуть податися в один клік
+3️⃣ Рекрутер отримує резюме кандидатів і приймає рішення
+4️⃣ Кандидати проходять етапи співбесіди, отримуючи автоматичні повідомлення
+5️⃣ Прийнятий кандидат отримує офер і контакт рекрутера
+6️⃣ Якщо вакансія закрита, бот оновлює статус і завершує пошук
+Цей процес дозволяє максимально спростити роботу рекрутерів і кандидатів.</t>
+  </si>
+  <si>
+    <t>/dialog{"dialog_id":"RecruiterFeatures"}</t>
   </si>
 </sst>
 </file>
@@ -510,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
@@ -569,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.5">
+    <row r="2" spans="1:13" ht="188.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -582,20 +622,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="43.5">
+    <row r="3" spans="1:13" ht="285">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -614,14 +648,8 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="159">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -631,68 +659,76 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="29.25">
+    <row r="5" spans="1:13" ht="178.5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>123</v>
-      </c>
-      <c r="K5">
-        <v>123</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30.75">
+    <row r="6" spans="1:13" ht="409.6">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6">
-        <v>324</v>
-      </c>
-      <c r="K6">
-        <v>234</v>
+    </row>
+    <row r="7" spans="1:13" ht="299.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039E81F4-F246-47CB-9A30-9742104A841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{464B5CAE-19E4-49D8-A6DE-27DEAD172293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Topic</t>
   </si>
@@ -83,7 +83,7 @@
 Обери, що тебе цікавить:</t>
   </si>
   <si>
-    <t>Що я вмію?; Хто мій творець?; Документація; Бот для рекрутерів</t>
+    <t>Що я вмію?; Хто мій творець?; Контакт; Бот для рекрутерів</t>
   </si>
   <si>
     <t>/dialog{"dialog_id":"Features"}; /dialog{"dialog_id":"Creator"}; /dialog{"dialog_id":"Docs"}; /dialog{"dialog_id":"RecruiterFeatures"}</t>
@@ -99,10 +99,10 @@
 ✅ Редагування повідомлень (старе замінюється новим)
 ✅ Перезавантаження кешу без перезапуску
 ✅ Логування всіх дій для зручного аналізу
-Якщо тобі цікаво дізнатися більше, заглянь у документацію!</t>
-  </si>
-  <si>
-    <t>Документація; Повернутися</t>
+Якщо тобі цікаво дізнатися більше, звернись до мого розробника!</t>
+  </si>
+  <si>
+    <t>Контакт; Повернутися</t>
   </si>
   <si>
     <t>/dialog{"dialog_id":"Docs"}; /dialog{"dialog_id":"Start"}</t>
@@ -115,7 +115,7 @@
   </si>
   <si>
     <t>Мій творець – розробник та девопс, який займається автоматизацією та створенням розумних ботів. Його мета – спростити взаємодію користувачів із системами, допомагаючи бізнесу та ентузіастам у створенні гнучких та ефективних рішень.
-Якщо ти хочеш дізнатися більше або навіть створити власного бота, подивися документацію!</t>
+Якщо ти хочеш дізнатися більше або навіть створити власного бота, звернись до мого розробника!</t>
   </si>
   <si>
     <t>Information</t>
@@ -124,11 +124,10 @@
     <t>Docs</t>
   </si>
   <si>
-    <t xml:space="preserve">Документація містить усю необхідну інформацію для створення власного бота. Тут ти знайдеш:
-📌 Як працює бот та які можливості він має
-📌 Як налаштувати власний Telegram-бот
-📌 Як інтегрувати його у свій проєкт
-Детальніше можна дізнатися за посиланням: </t>
+    <t>Нажаль мій розробник ще не зробив документацію щоб ви могли самостійно швидко та зручно зробити бота. Але ви можете написати до мого розробника та він надасть вам можливість!
+Ви зможете замовити свого бота з такими ж самими опціями як в мене (розробка менше ніж неділя)
+Або замовити бота з доп можливостями та це буде зроблено якісно та якомога гибко до вашого бізнесу!
+Контакт: @Uamgl</t>
   </si>
   <si>
     <t>Повернутися</t>
@@ -176,6 +175,15 @@
   </si>
   <si>
     <t>/dialog{"dialog_id":"RecruiterFeatures"}</t>
+  </si>
+  <si>
+    <t>HelloArisha</t>
+  </si>
+  <si>
+    <t>Аришка привет)</t>
+  </si>
+  <si>
+    <t>/dialog{"dialog_id":"Start"}</t>
   </si>
 </sst>
 </file>
@@ -550,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,7 +678,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="178.5">
+    <row r="5" spans="1:13" ht="201.75">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -731,6 +739,26 @@
         <v>37</v>
       </c>
     </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464B5CAE-19E4-49D8-A6DE-27DEAD172293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{080A08DD-9125-476F-81D6-B43AC7565011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Topic</t>
   </si>
@@ -175,15 +175,6 @@
   </si>
   <si>
     <t>/dialog{"dialog_id":"RecruiterFeatures"}</t>
-  </si>
-  <si>
-    <t>HelloArisha</t>
-  </si>
-  <si>
-    <t>Аришка привет)</t>
-  </si>
-  <si>
-    <t>/dialog{"dialog_id":"Start"}</t>
   </si>
 </sst>
 </file>
@@ -560,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,24 +731,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080A08DD-9125-476F-81D6-B43AC7565011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FB6F38-0A70-412E-A259-126FB79FAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,10 @@
     <t>Docs</t>
   </si>
   <si>
-    <t>Нажаль мій розробник ще не зробив документацію щоб ви могли самостійно швидко та зручно зробити бота. Але ви можете написати до мого розробника та він надасть вам можливість!
-Ви зможете замовити свого бота з такими ж самими опціями як в мене (розробка менше ніж неділя)
-Або замовити бота з доп можливостями та це буде зроблено якісно та якомога гибко до вашого бізнесу!
-Контакт: @Uamgl</t>
+    <t xml:space="preserve">        Нажаль мій розробник ще не зробив документацію щоб ви могли самостійно швидко та зручно зробити бота. Але ви можете написати до мого розробника та він надасть вам можливість!
+        Ви зможете замовити свого бота з такими ж самими опціями як в мене (розробка менше ніж неділя)
+        Або замовити бота з доп можливостями та це буде зроблено якісно та якомога гибко до вашого бізнесу!
+        Контакт: @Uamgl</t>
   </si>
   <si>
     <t>Повернутися</t>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="201.75">
+    <row r="5" spans="1:13" ht="231">
       <c r="A5" t="s">
         <v>25</v>
       </c>

--- a/dialogs.xlsx
+++ b/dialogs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FB6F38-0A70-412E-A259-126FB79FAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3AE1417-F411-47F9-9430-49A8E1062EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Topic</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>ReplacePrevious</t>
   </si>
   <si>
     <t>Payload</t>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>Що я вмію?; Хто мій творець?; Контакт; Бот для рекрутерів</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>/dialog{"dialog_id":"Features"}; /dialog{"dialog_id":"Creator"}; /dialog{"dialog_id":"Docs"}; /dialog{"dialog_id":"RecruiterFeatures"}</t>
@@ -175,6 +181,13 @@
   </si>
   <si>
     <t>/dialog{"dialog_id":"RecruiterFeatures"}</t>
+  </si>
+  <si>
+    <t>ShowAllDialogs</t>
+  </si>
+  <si>
+    <t>Ось список діалогів які в нас є: \n {base.show_all_dialogs}
+Зовсім скоро буде велике оновлення!</t>
   </si>
 </sst>
 </file>
@@ -210,10 +223,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,13 +580,15 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +607,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -607,131 +628,172 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="188.25">
+    <row r="2" spans="1:14" ht="188.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="285">
+    <row r="3" spans="1:14" ht="285">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="159">
+    <row r="4" spans="1:14" ht="159">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="231">
+    <row r="5" spans="1:14" ht="231">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="409.6">
+    <row r="6" spans="1:14" ht="409.6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="299.25">
+    <row r="7" spans="1:14" ht="299.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:14" ht="43.5">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
